--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses_StronQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariia\RubymineProjects\lesson8\tests_rspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
   <si>
     <t>Functionality</t>
   </si>
@@ -365,9 +365,6 @@
     <t>tc_02</t>
   </si>
   <si>
-    <t>User can register with the correct credentials</t>
-  </si>
-  <si>
     <t>User should be redirected to
 Contact Details tab.</t>
   </si>
@@ -376,6 +373,33 @@
   </si>
   <si>
     <t>User should be over 18 years old to apply</t>
+  </si>
+  <si>
+    <t>tc_03</t>
+  </si>
+  <si>
+    <t>Prerequisites:tc_01                         1. Fill all required fields with incorrect on this step"Getting Started". 2. Click on the Next button.</t>
+  </si>
+  <si>
+    <t>User can pass the Getting Started section with correct credentials.</t>
+  </si>
+  <si>
+    <t>User should not be redirected to
+Contact Details tab.</t>
+  </si>
+  <si>
+    <t>User is redirected to
+Sign Up page</t>
+  </si>
+  <si>
+    <t>User is redirected to
+Contact Details tab.</t>
+  </si>
+  <si>
+    <t>User is still on Getting Started tab. The alert message occurred.</t>
+  </si>
+  <si>
+    <t>User can not pass the Getting Started section with incorrect credentials(Email and retyped email are different).</t>
   </si>
 </sst>
 </file>
@@ -530,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -607,6 +631,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1347,7 +1374,7 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,10 +1435,12 @@
       <c r="D2" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="26" t="s">
+        <v>119</v>
+      </c>
       <c r="G2" s="28"/>
       <c r="H2" s="29">
         <v>1</v>
@@ -1426,18 +1455,20 @@
         <v>111</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="27"/>
+      <c r="F3" s="26" t="s">
+        <v>120</v>
+      </c>
       <c r="G3" s="28"/>
       <c r="H3" s="29">
         <v>1</v>
@@ -1446,18 +1477,28 @@
         <v>110</v>
       </c>
       <c r="J3" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>121</v>
+      </c>
       <c r="G4" s="28"/>
       <c r="H4" s="29">
         <v>1</v>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>Functionality</t>
   </si>
@@ -253,66 +253,6 @@
   </si>
   <si>
     <t>55/57 =</t>
-  </si>
-  <si>
-    <t>The system returns error message.</t>
-  </si>
-  <si>
-    <t>Mozilla Firefox 40.0.3</t>
-  </si>
-  <si>
-    <t>1. Open link:” http://www.topmarques.co.uk/”. 2. Set Postcode:"PE20 3AN". 3. Click on the button "Search" in the "Quick Search" block.4. Press "Sort by:"Price-high to low"".5. Choose "Ferari 275", which is on the first position, pressing button "View Advert".6. Click on the button "Email Dealer". 7. Leave the field "Email" vacant. 8.Set flag in field "I'm not a robot". 9. Click on button "Send email".</t>
-  </si>
-  <si>
-    <t>The system displays Error Message:"Please enter your email address ."</t>
-  </si>
-  <si>
-    <t>Check the filling of the field E-mail.</t>
-  </si>
-  <si>
-    <t>1. Open link:” http://www.topmarques.co.uk/”. 2. Set Postcode:"PE20 3AN". 3. Click on the button "Search" in the "Quick Search" block.4. Press "Sort by:"Price-high to low"".5. Choose "Ferari 275", which is on the first position, pressing button "View Advert".6. Click on the button "Email Dealer". 7.Enter the correct email format - email@email.com. 8.Fill another fields of section. 9.Set flag in field "I'm not a robot". 10. Click on button "Send email".</t>
-  </si>
-  <si>
-    <t>The system accepts the entered email.</t>
-  </si>
-  <si>
-    <t>The Enquiry form is sent.</t>
-  </si>
-  <si>
-    <t>Check the incorrect filling of the field E-mail.</t>
-  </si>
-  <si>
-    <t>1. Open link:” http://www.topmarques.co.uk/”. 2. Set Postcode:"PE20 3AN". 3. Click on the button "Search" in the "Quick Search" block.4. Press "Sort by:"Price-high to low"".5. Choose "Ferari 275", which is on the first position, pressing button "View Advert".6. Click on the button "Email Dealer". 7.Enter E-mail different from the required format - email@email.com. 8.Fill another fields of section. 9.Set flag in field "I'm not a robot". 10. Click on button "Send email".</t>
-  </si>
-  <si>
-    <t>The system doesn't accept the entered email.The system returns error message.</t>
-  </si>
-  <si>
-    <t>The system displays Error Message:"Please ensure you've entered your email address correctly.".</t>
-  </si>
-  <si>
-    <t>Select any value of drop down list"Title".</t>
-  </si>
-  <si>
-    <t>1. Open link:” http://www.topmarques.co.uk/”. 2. Set Postcode:"PE20 3AN". 3. Click on the button "Search" in the "Quick Search" block.4. Press "Sort by:"Price-high to low"".5. Choose "Ferari 275", which is on the first position, pressing button "View Advert".6. Click on the button "Email Dealer". 7. Select any value of drop down list"Title". 8.Fill another fields of section. 9.Set flag in field "I'm not a robot". 10. Click on button "Send email".</t>
-  </si>
-  <si>
-    <t>The system accepts the form.</t>
-  </si>
-  <si>
-    <t>Select first value of drop down list "Title".</t>
-  </si>
-  <si>
-    <t>Absence of flag in field "I'm not a robot"</t>
-  </si>
-  <si>
-    <t>1. Open link:” http://www.topmarques.co.uk/”. 2. Set Postcode:"PE20 3AN". 3. Click on the button "Search" in the "Quick Search" block.4. Press "Sort by:"Price-high to low"".5. Choose "Ferari 275", which is on the first position, pressing button "View Advert".6. Click on the button "Email Dealer". 7. Fill another fields of section. 9.Don't set flag in field "I'm not a robot". 10. Click on button "Send email".</t>
-  </si>
-  <si>
-    <t>The system accepts the form. The system returns error message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system displays  Message:"Please let us know you're not a robot." </t>
   </si>
   <si>
     <t>Test ID</t>
@@ -378,9 +318,6 @@
     <t>tc_03</t>
   </si>
   <si>
-    <t>Prerequisites:tc_01                         1. Fill all required fields with incorrect on this step"Getting Started". 2. Click on the Next button.</t>
-  </si>
-  <si>
     <t>User can pass the Getting Started section with correct credentials.</t>
   </si>
   <si>
@@ -396,10 +333,13 @@
 Contact Details tab.</t>
   </si>
   <si>
-    <t>User is still on Getting Started tab. The alert message occurred.</t>
-  </si>
-  <si>
     <t>User can not pass the Getting Started section with incorrect credentials(Email and retyped email are different).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prerequisites:tc_01                         1. Fill all required fields with incorrect on this step"Getting Started". </t>
+  </si>
+  <si>
+    <t>User is still on Getting Started tab. The alert message occurred 'Please enter the same value again'.</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1314,7 @@
   <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,126 +1332,124 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="29">
         <v>1</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="29">
         <v>1</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="29">
         <v>1</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>50</v>
-      </c>
+      <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1523,170 +1461,76 @@
       <c r="J5" s="11"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>51</v>
-      </c>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>79</v>
-      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="29">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>83</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="29">
-        <v>1</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>87</v>
-      </c>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="29">
-        <v>1</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>83</v>
-      </c>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="29">
-        <v>2</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>83</v>
-      </c>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="29">
-        <v>2</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>110</v>
-      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>95</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="29">
-        <v>2</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>110</v>
-      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
